--- a/data_year/zb/卫生/社区卫生服务中心(站)医疗服务情况.xlsx
+++ b/data_year/zb/卫生/社区卫生服务中心(站)医疗服务情况.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,419 +463,265 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>10.6091</v>
+        <v>218.0577</v>
       </c>
       <c r="C2" t="n">
-        <v>19.1</v>
+        <v>10.4</v>
       </c>
       <c r="D2" t="n">
-        <v>68.09999999999999</v>
+        <v>56.07</v>
       </c>
       <c r="E2" t="n">
-        <v>0.35878718</v>
+        <v>3.47404131</v>
       </c>
       <c r="F2" t="n">
-        <v>1.11623067</v>
+        <v>1.37111392</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>10.2844</v>
+        <v>247.3426</v>
       </c>
       <c r="C3" t="n">
-        <v>23.76</v>
+        <v>10.1506614516</v>
       </c>
       <c r="D3" t="n">
-        <v>67.09999999999999</v>
+        <v>54.3534497504</v>
       </c>
       <c r="E3" t="n">
-        <v>0.38043852</v>
+        <v>4.09499505</v>
       </c>
       <c r="F3" t="n">
-        <v>0.36119003</v>
+        <v>1.37037903</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>15.1965</v>
+        <v>268.6554</v>
       </c>
       <c r="C4" t="n">
-        <v>20.97</v>
+        <v>10.0544507384</v>
       </c>
       <c r="D4" t="n">
-        <v>61.2</v>
+        <v>55.4717994843</v>
       </c>
       <c r="E4" t="n">
-        <v>0.46155902</v>
+        <v>4.54751077</v>
       </c>
       <c r="F4" t="n">
-        <v>0.50955234</v>
+        <v>1.43935953</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>26.6215</v>
+        <v>292.063</v>
       </c>
       <c r="C5" t="n">
-        <v>17.18</v>
+        <v>9.8348006948</v>
       </c>
       <c r="D5" t="n">
-        <v>60.68</v>
+        <v>57.0199164976</v>
       </c>
       <c r="E5" t="n">
-        <v>0.59385194</v>
+        <v>5.07885866</v>
       </c>
       <c r="F5" t="n">
-        <v>0.62814512</v>
+        <v>1.49211933</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>43.6288</v>
+        <v>298.0571</v>
       </c>
       <c r="C6" t="n">
-        <v>15.51</v>
+        <v>9.858046419900001</v>
       </c>
       <c r="D6" t="n">
-        <v>57.94</v>
+        <v>55.6220400868</v>
       </c>
       <c r="E6" t="n">
-        <v>0.82854794</v>
+        <v>5.36187933</v>
       </c>
       <c r="F6" t="n">
-        <v>0.93789368</v>
+        <v>1.49119766</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>74.3186</v>
+        <v>305.5499</v>
       </c>
       <c r="C7" t="n">
-        <v>13.1</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="D7" t="n">
-        <v>59.6</v>
+        <v>54.7</v>
       </c>
       <c r="E7" t="n">
-        <v>1.2712446</v>
+        <v>5.59026</v>
       </c>
       <c r="F7" t="n">
-        <v>0.98749683</v>
+        <v>1.47425</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>103.2788</v>
+        <v>313.7143</v>
       </c>
       <c r="C8" t="n">
-        <v>13.4145806406</v>
+        <v>9.704093051799999</v>
       </c>
       <c r="D8" t="n">
-        <v>58.6677340971</v>
+        <v>54.6218001719</v>
       </c>
       <c r="E8" t="n">
-        <v>1.72473026</v>
+        <v>5.63270221</v>
       </c>
       <c r="F8" t="n">
-        <v>0.84250889</v>
+        <v>1.55618949</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>164.2427</v>
+        <v>344.2497</v>
       </c>
       <c r="C9" t="n">
-        <v>10.5525478609</v>
+        <v>9.5</v>
       </c>
       <c r="D9" t="n">
-        <v>59.7882458579</v>
+        <v>54.84</v>
       </c>
       <c r="E9" t="n">
-        <v>2.60802371</v>
+        <v>6.07432288</v>
       </c>
       <c r="F9" t="n">
-        <v>1.16172536</v>
+        <v>1.59823646</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>218.0577</v>
+        <v>339.5371</v>
       </c>
       <c r="C10" t="n">
-        <v>10.4</v>
+        <v>9.9</v>
       </c>
       <c r="D10" t="n">
-        <v>56.07</v>
+        <v>52</v>
       </c>
       <c r="E10" t="n">
-        <v>3.47404131</v>
+        <v>6.38978662</v>
       </c>
       <c r="F10" t="n">
-        <v>1.37111392</v>
+        <v>1.60115334</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>247.3426</v>
+        <v>339.52</v>
       </c>
       <c r="C11" t="n">
-        <v>10.1506614516</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="D11" t="n">
-        <v>54.3534497504</v>
+        <v>49.65</v>
       </c>
       <c r="E11" t="n">
-        <v>4.09499505</v>
+        <v>6.911069</v>
       </c>
       <c r="F11" t="n">
-        <v>1.37037903</v>
+        <v>1.680566</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>268.6554</v>
+        <v>292.7288</v>
       </c>
       <c r="C12" t="n">
-        <v>10.0544507384</v>
+        <v>10.3</v>
       </c>
       <c r="D12" t="n">
-        <v>55.4717994843</v>
+        <v>42.81</v>
       </c>
       <c r="E12" t="n">
-        <v>4.54751077</v>
+        <v>6.20683853</v>
       </c>
       <c r="F12" t="n">
-        <v>1.43935953</v>
+        <v>1.34037234</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2013年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>292.063</v>
+        <v>319.2971</v>
       </c>
       <c r="C13" t="n">
-        <v>9.8348006948</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="D13" t="n">
-        <v>57.0199164976</v>
+        <v>43.2</v>
       </c>
       <c r="E13" t="n">
-        <v>5.07885866</v>
+        <v>6.95966057</v>
       </c>
       <c r="F13" t="n">
-        <v>1.49211933</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>298.0571</v>
-      </c>
-      <c r="C14" t="n">
-        <v>9.858046419900001</v>
-      </c>
-      <c r="D14" t="n">
-        <v>55.6220400868</v>
-      </c>
-      <c r="E14" t="n">
-        <v>5.36187933</v>
-      </c>
-      <c r="F14" t="n">
-        <v>1.49119766</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>305.5499</v>
-      </c>
-      <c r="C15" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="D15" t="n">
-        <v>54.7</v>
-      </c>
-      <c r="E15" t="n">
-        <v>5.59026</v>
-      </c>
-      <c r="F15" t="n">
-        <v>1.47425</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>313.7143</v>
-      </c>
-      <c r="C16" t="n">
-        <v>9.704093051799999</v>
-      </c>
-      <c r="D16" t="n">
-        <v>54.6218001719</v>
-      </c>
-      <c r="E16" t="n">
-        <v>5.63270221</v>
-      </c>
-      <c r="F16" t="n">
-        <v>1.55618949</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>344.2497</v>
-      </c>
-      <c r="C17" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="D17" t="n">
-        <v>54.84</v>
-      </c>
-      <c r="E17" t="n">
-        <v>6.07432288</v>
-      </c>
-      <c r="F17" t="n">
-        <v>1.59823646</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>339.5371</v>
-      </c>
-      <c r="C18" t="n">
-        <v>9.9</v>
-      </c>
-      <c r="D18" t="n">
-        <v>52</v>
-      </c>
-      <c r="E18" t="n">
-        <v>6.38978662</v>
-      </c>
-      <c r="F18" t="n">
-        <v>1.60115334</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>339.52</v>
-      </c>
-      <c r="C19" t="n">
-        <v>9.699999999999999</v>
-      </c>
-      <c r="D19" t="n">
-        <v>49.65</v>
-      </c>
-      <c r="E19" t="n">
-        <v>6.911069</v>
-      </c>
-      <c r="F19" t="n">
-        <v>1.680566</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>292.7288</v>
-      </c>
-      <c r="C20" t="n">
-        <v>10.3</v>
-      </c>
-      <c r="D20" t="n">
-        <v>42.81</v>
-      </c>
-      <c r="E20" t="n">
-        <v>6.20683853</v>
-      </c>
-      <c r="F20" t="n">
-        <v>1.34037234</v>
+        <v>1.40058791</v>
       </c>
     </row>
   </sheetData>
